--- a/测试数据/社保公积金结算单.xlsx
+++ b/测试数据/社保公积金结算单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr hidePivotFieldList="1"/>
   <bookViews>
-    <workbookView windowWidth="20930" windowHeight="10730" tabRatio="602"/>
+    <workbookView windowWidth="28800" windowHeight="14220" tabRatio="602"/>
   </bookViews>
   <sheets>
     <sheet name="社保-6月" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="113">
   <si>
     <t>序号</t>
   </si>
@@ -107,39 +107,21 @@
     <t>N0158268</t>
   </si>
   <si>
-    <t>工程物业部</t>
-  </si>
-  <si>
-    <t>总部承担费用</t>
-  </si>
-  <si>
     <t>非代缴</t>
   </si>
   <si>
-    <t>xx有限公司</t>
-  </si>
-  <si>
     <t>N0162319</t>
   </si>
   <si>
     <t>N0102606</t>
   </si>
   <si>
-    <t>酒店服务部</t>
-  </si>
-  <si>
     <t>N0151914</t>
   </si>
   <si>
-    <t>公共事务部</t>
-  </si>
-  <si>
     <t>N0092052</t>
   </si>
   <si>
-    <t>总经理室</t>
-  </si>
-  <si>
     <t>N0161254</t>
   </si>
   <si>
@@ -155,9 +137,6 @@
     <t>N0043134</t>
   </si>
   <si>
-    <t>财务部</t>
-  </si>
-  <si>
     <t>N0162777</t>
   </si>
   <si>
@@ -167,9 +146,6 @@
     <t>N0164839</t>
   </si>
   <si>
-    <t>酒店服务部-餐饮</t>
-  </si>
-  <si>
     <t>N0180522</t>
   </si>
   <si>
@@ -209,9 +185,6 @@
     <t>N0157246</t>
   </si>
   <si>
-    <t>行政人事部</t>
-  </si>
-  <si>
     <t>N0153425</t>
   </si>
   <si>
@@ -296,9 +269,6 @@
     <t>N0097229</t>
   </si>
   <si>
-    <t>补缴5月</t>
-  </si>
-  <si>
     <t>N0197992</t>
   </si>
   <si>
@@ -311,9 +281,6 @@
     <t>N0199467</t>
   </si>
   <si>
-    <t>下月补缴</t>
-  </si>
-  <si>
     <t>N0199255</t>
   </si>
   <si>
@@ -327,9 +294,6 @@
   </si>
   <si>
     <t>N0200322</t>
-  </si>
-  <si>
-    <t>6月开始缴纳</t>
   </si>
   <si>
     <t>N0200321</t>
@@ -409,10 +373,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
@@ -485,7 +449,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -499,15 +493,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -529,91 +565,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -624,6 +583,11 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="35">
@@ -647,7 +611,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,7 +635,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -671,19 +749,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -695,67 +761,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -773,61 +779,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -919,11 +883,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -945,26 +915,42 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="thick">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -984,44 +970,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1033,160 +997,160 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1745,39 +1709,39 @@
   <dimension ref="A1:Z86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="O69" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3:C86"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3:F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87272727272727" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="2" width="10.8727272727273" style="6"/>
+    <col min="2" max="2" width="10.875" style="6"/>
     <col min="3" max="3" width="10.5" style="4" customWidth="1"/>
     <col min="4" max="4" width="10.5" style="7" customWidth="1"/>
-    <col min="5" max="5" width="17.3727272727273"/>
+    <col min="5" max="5" width="17.375"/>
     <col min="6" max="6" width="20.5" customWidth="1"/>
     <col min="7" max="8" width="10.5" customWidth="1"/>
-    <col min="9" max="9" width="11.6272727272727" style="8" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="8" customWidth="1"/>
     <col min="10" max="10" width="10.5" style="9" customWidth="1"/>
-    <col min="11" max="11" width="9.37272727272727" style="8" customWidth="1"/>
-    <col min="12" max="12" width="11.6272727272727" style="8" customWidth="1"/>
-    <col min="13" max="13" width="18.8181818181818" style="10" customWidth="1"/>
+    <col min="11" max="11" width="9.375" style="8" customWidth="1"/>
+    <col min="12" max="12" width="11.625" style="8" customWidth="1"/>
+    <col min="13" max="13" width="18.8166666666667" style="10" customWidth="1"/>
     <col min="14" max="14" width="10.5" style="8" customWidth="1"/>
     <col min="15" max="15" width="10.5" style="10" customWidth="1"/>
-    <col min="16" max="16" width="9.37272727272727" style="8" customWidth="1"/>
+    <col min="16" max="16" width="9.375" style="8" customWidth="1"/>
     <col min="17" max="17" width="8.5" style="10" customWidth="1"/>
-    <col min="18" max="18" width="12.6272727272727" style="11" customWidth="1"/>
-    <col min="19" max="19" width="14.8727272727273" style="12"/>
-    <col min="20" max="20" width="9.37272727272727" style="13" customWidth="1"/>
-    <col min="21" max="22" width="9.37272727272727" style="14" customWidth="1"/>
-    <col min="23" max="23" width="11.6272727272727" style="15" customWidth="1"/>
-    <col min="24" max="24" width="14.8727272727273" style="12"/>
-    <col min="25" max="25" width="30.6272727272727" style="15"/>
-    <col min="26" max="26" width="30.6272727272727"/>
+    <col min="18" max="18" width="12.625" style="11" customWidth="1"/>
+    <col min="19" max="19" width="14.875" style="12"/>
+    <col min="20" max="20" width="9.375" style="13" customWidth="1"/>
+    <col min="21" max="22" width="9.375" style="14" customWidth="1"/>
+    <col min="23" max="23" width="11.625" style="15" customWidth="1"/>
+    <col min="24" max="24" width="14.875" style="12"/>
+    <col min="25" max="25" width="30.625" style="15"/>
+    <col min="26" max="26" width="30.625"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="17.85" customHeight="1" spans="1:26">
@@ -1904,14 +1868,10 @@
       <c r="D3" s="21">
         <v>44298</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="22"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23" t="s">
         <v>26</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>28</v>
       </c>
       <c r="H3" s="20" t="e">
         <v>#N/A</v>
@@ -1940,12 +1900,8 @@
         <v>0</v>
       </c>
       <c r="X3" s="25"/>
-      <c r="Y3" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z3" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="22"/>
     </row>
     <row r="4" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:26">
       <c r="A4" s="22">
@@ -1953,20 +1909,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C4" s="23"/>
       <c r="D4" s="21">
         <v>44329</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="23" t="s">
         <v>26</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>28</v>
       </c>
       <c r="H4" s="20" t="e">
         <v>#N/A</v>
@@ -1995,12 +1947,8 @@
         <v>0</v>
       </c>
       <c r="X4" s="25"/>
-      <c r="Y4" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z4" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
     </row>
     <row r="5" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:26">
       <c r="A5" s="22">
@@ -2008,20 +1956,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C5" s="23"/>
       <c r="D5" s="21">
         <v>43658</v>
       </c>
-      <c r="E5" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>27</v>
-      </c>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
       <c r="G5" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H5" s="20" t="e">
         <v>#N/A</v>
@@ -2050,12 +1994,8 @@
         <v>0</v>
       </c>
       <c r="X5" s="25"/>
-      <c r="Y5" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z5" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="Y5" s="22"/>
+      <c r="Z5" s="22"/>
     </row>
     <row r="6" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:26">
       <c r="A6" s="22">
@@ -2063,20 +2003,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="21">
         <v>44404</v>
       </c>
-      <c r="E6" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>27</v>
-      </c>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
       <c r="G6" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H6" s="20" t="e">
         <v>#N/A</v>
@@ -2105,12 +2041,8 @@
         <v>0</v>
       </c>
       <c r="X6" s="25"/>
-      <c r="Y6" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z6" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="22"/>
     </row>
     <row r="7" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:26">
       <c r="A7" s="22">
@@ -2118,20 +2050,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C7" s="23"/>
       <c r="D7" s="21">
         <v>43577</v>
       </c>
-      <c r="E7" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>27</v>
-      </c>
+      <c r="E7" s="22"/>
+      <c r="F7" s="23"/>
       <c r="G7" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H7" s="20" t="e">
         <v>#N/A</v>
@@ -2160,12 +2088,8 @@
         <v>0</v>
       </c>
       <c r="X7" s="25"/>
-      <c r="Y7" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z7" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="22"/>
     </row>
     <row r="8" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:26">
       <c r="A8" s="22">
@@ -2173,20 +2097,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="21">
         <v>44322</v>
       </c>
-      <c r="E8" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>27</v>
-      </c>
+      <c r="E8" s="22"/>
+      <c r="F8" s="23"/>
       <c r="G8" s="24" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H8" s="20" t="e">
         <v>#N/A</v>
@@ -2215,12 +2135,8 @@
         <v>0</v>
       </c>
       <c r="X8" s="25"/>
-      <c r="Y8" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z8" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22"/>
     </row>
     <row r="9" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:26">
       <c r="A9" s="22">
@@ -2228,18 +2144,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="21">
         <v>43308</v>
       </c>
-      <c r="E9" s="22" t="s">
-        <v>36</v>
-      </c>
+      <c r="E9" s="22"/>
       <c r="F9" s="23"/>
       <c r="G9" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H9" s="20">
         <v>19335</v>
@@ -2290,12 +2204,8 @@
         <v>6240</v>
       </c>
       <c r="X9" s="25"/>
-      <c r="Y9" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z9" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22"/>
     </row>
     <row r="10" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:26">
       <c r="A10" s="22">
@@ -2303,18 +2213,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="21">
         <v>44348</v>
       </c>
-      <c r="E10" s="22" t="s">
-        <v>36</v>
-      </c>
+      <c r="E10" s="22"/>
       <c r="F10" s="23"/>
       <c r="G10" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H10" s="20">
         <v>19335</v>
@@ -2365,12 +2273,8 @@
         <v>6240</v>
       </c>
       <c r="X10" s="25"/>
-      <c r="Y10" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z10" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="22"/>
     </row>
     <row r="11" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:26">
       <c r="A11" s="22">
@@ -2378,18 +2282,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C11" s="23"/>
       <c r="D11" s="21">
         <v>43060</v>
       </c>
-      <c r="E11" s="22" t="s">
-        <v>42</v>
-      </c>
+      <c r="E11" s="22"/>
       <c r="F11" s="22"/>
       <c r="G11" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H11" s="20">
         <v>8300</v>
@@ -2440,12 +2342,8 @@
         <v>1660</v>
       </c>
       <c r="X11" s="25"/>
-      <c r="Y11" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z11" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="22"/>
     </row>
     <row r="12" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:26">
       <c r="A12" s="22">
@@ -2453,18 +2351,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C12" s="23"/>
       <c r="D12" s="21">
         <v>44333</v>
       </c>
-      <c r="E12" s="22" t="s">
-        <v>42</v>
-      </c>
+      <c r="E12" s="22"/>
       <c r="F12" s="22"/>
       <c r="G12" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H12" s="20">
         <v>12000</v>
@@ -2515,12 +2411,8 @@
         <v>2400</v>
       </c>
       <c r="X12" s="25"/>
-      <c r="Y12" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z12" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="22"/>
     </row>
     <row r="13" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:26">
       <c r="A13" s="22">
@@ -2528,18 +2420,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C13" s="23"/>
       <c r="D13" s="21">
         <v>44389</v>
       </c>
-      <c r="E13" s="22" t="s">
-        <v>42</v>
-      </c>
+      <c r="E13" s="22"/>
       <c r="F13" s="22"/>
       <c r="G13" s="24" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H13" s="20">
         <v>18000</v>
@@ -2590,12 +2480,8 @@
         <v>3600</v>
       </c>
       <c r="X13" s="25"/>
-      <c r="Y13" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z13" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="22"/>
     </row>
     <row r="14" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:26">
       <c r="A14" s="22">
@@ -2603,18 +2489,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="21">
         <v>44348</v>
       </c>
-      <c r="E14" s="22" t="s">
-        <v>46</v>
-      </c>
+      <c r="E14" s="22"/>
       <c r="F14" s="22"/>
       <c r="G14" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H14" s="20">
         <v>19335</v>
@@ -2665,12 +2549,8 @@
         <v>4000</v>
       </c>
       <c r="X14" s="25"/>
-      <c r="Y14" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z14" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="Y14" s="22"/>
+      <c r="Z14" s="22"/>
     </row>
     <row r="15" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:26">
       <c r="A15" s="22">
@@ -2678,18 +2558,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="21">
         <v>44452</v>
       </c>
-      <c r="E15" s="22" t="s">
-        <v>46</v>
-      </c>
+      <c r="E15" s="22"/>
       <c r="F15" s="22"/>
       <c r="G15" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H15" s="20">
         <v>4250</v>
@@ -2736,12 +2614,8 @@
         <v>0</v>
       </c>
       <c r="X15" s="25"/>
-      <c r="Y15" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z15" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="Y15" s="22"/>
+      <c r="Z15" s="22"/>
     </row>
     <row r="16" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:26">
       <c r="A16" s="22">
@@ -2749,18 +2623,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="21">
         <v>44457</v>
       </c>
-      <c r="E16" s="22" t="s">
-        <v>46</v>
-      </c>
+      <c r="E16" s="22"/>
       <c r="F16" s="22"/>
       <c r="G16" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H16" s="20">
         <v>8500</v>
@@ -2811,12 +2683,8 @@
         <v>1700</v>
       </c>
       <c r="X16" s="25"/>
-      <c r="Y16" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z16" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="Y16" s="22"/>
+      <c r="Z16" s="22"/>
     </row>
     <row r="17" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:26">
       <c r="A17" s="22">
@@ -2824,18 +2692,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="21">
         <v>44461</v>
       </c>
-      <c r="E17" s="22" t="s">
-        <v>46</v>
-      </c>
+      <c r="E17" s="22"/>
       <c r="F17" s="22"/>
       <c r="G17" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H17" s="20">
         <v>4250</v>
@@ -2882,12 +2748,8 @@
         <v>0</v>
       </c>
       <c r="X17" s="25"/>
-      <c r="Y17" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z17" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="Y17" s="22"/>
+      <c r="Z17" s="22"/>
     </row>
     <row r="18" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:26">
       <c r="A18" s="22">
@@ -2895,18 +2757,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C18" s="23"/>
       <c r="D18" s="21">
         <v>44461</v>
       </c>
-      <c r="E18" s="22" t="s">
-        <v>46</v>
-      </c>
+      <c r="E18" s="22"/>
       <c r="F18" s="22"/>
       <c r="G18" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H18" s="20">
         <v>6500</v>
@@ -2957,12 +2817,8 @@
         <v>1300</v>
       </c>
       <c r="X18" s="25"/>
-      <c r="Y18" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z18" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="Y18" s="22"/>
+      <c r="Z18" s="22"/>
     </row>
     <row r="19" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:26">
       <c r="A19" s="22">
@@ -2970,18 +2826,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C19" s="23"/>
       <c r="D19" s="21">
         <v>44502</v>
       </c>
-      <c r="E19" s="22" t="s">
-        <v>46</v>
-      </c>
+      <c r="E19" s="22"/>
       <c r="F19" s="22"/>
       <c r="G19" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H19" s="20">
         <v>4250</v>
@@ -3028,12 +2882,8 @@
         <v>0</v>
       </c>
       <c r="X19" s="25"/>
-      <c r="Y19" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z19" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="Y19" s="22"/>
+      <c r="Z19" s="22"/>
     </row>
     <row r="20" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:26">
       <c r="A20" s="22">
@@ -3041,18 +2891,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C20" s="23"/>
       <c r="D20" s="21">
         <v>44550</v>
       </c>
-      <c r="E20" s="22" t="s">
-        <v>46</v>
-      </c>
+      <c r="E20" s="22"/>
       <c r="F20" s="22"/>
       <c r="G20" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H20" s="20">
         <v>4250</v>
@@ -3099,12 +2947,8 @@
         <v>0</v>
       </c>
       <c r="X20" s="25"/>
-      <c r="Y20" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z20" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="Y20" s="22"/>
+      <c r="Z20" s="22"/>
     </row>
     <row r="21" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:26">
       <c r="A21" s="22">
@@ -3112,18 +2956,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C21" s="23"/>
       <c r="D21" s="21">
         <v>42999</v>
       </c>
-      <c r="E21" s="22" t="s">
-        <v>32</v>
-      </c>
+      <c r="E21" s="22"/>
       <c r="F21" s="22"/>
       <c r="G21" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H21" s="20">
         <v>5500</v>
@@ -3174,12 +3016,8 @@
         <v>1100</v>
       </c>
       <c r="X21" s="25"/>
-      <c r="Y21" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z21" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="Y21" s="22"/>
+      <c r="Z21" s="22"/>
     </row>
     <row r="22" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:26">
       <c r="A22" s="22">
@@ -3187,18 +3025,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C22" s="23"/>
       <c r="D22" s="21">
         <v>44461</v>
       </c>
-      <c r="E22" s="22" t="s">
-        <v>26</v>
-      </c>
+      <c r="E22" s="22"/>
       <c r="F22" s="22"/>
       <c r="G22" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H22" s="20">
         <v>4250</v>
@@ -3245,12 +3081,8 @@
         <v>0</v>
       </c>
       <c r="X22" s="25"/>
-      <c r="Y22" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z22" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="Y22" s="22"/>
+      <c r="Z22" s="22"/>
     </row>
     <row r="23" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:26">
       <c r="A23" s="22">
@@ -3258,18 +3090,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C23" s="23"/>
       <c r="D23" s="21">
         <v>44489</v>
       </c>
-      <c r="E23" s="22" t="s">
-        <v>26</v>
-      </c>
+      <c r="E23" s="22"/>
       <c r="F23" s="22"/>
       <c r="G23" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H23" s="20">
         <v>4250</v>
@@ -3320,12 +3150,8 @@
         <v>1500</v>
       </c>
       <c r="X23" s="25"/>
-      <c r="Y23" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z23" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="Y23" s="22"/>
+      <c r="Z23" s="22"/>
     </row>
     <row r="24" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:26">
       <c r="A24" s="22">
@@ -3333,18 +3159,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C24" s="23"/>
       <c r="D24" s="21">
         <v>44565</v>
       </c>
-      <c r="E24" s="22" t="s">
-        <v>26</v>
-      </c>
+      <c r="E24" s="22"/>
       <c r="F24" s="22"/>
       <c r="G24" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H24" s="20">
         <v>4250</v>
@@ -3391,12 +3215,8 @@
         <v>0</v>
       </c>
       <c r="X24" s="25"/>
-      <c r="Y24" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z24" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="Y24" s="22"/>
+      <c r="Z24" s="22"/>
     </row>
     <row r="25" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:26">
       <c r="A25" s="22">
@@ -3404,18 +3224,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C25" s="23"/>
       <c r="D25" s="21">
         <v>44167</v>
       </c>
-      <c r="E25" s="22" t="s">
-        <v>34</v>
-      </c>
+      <c r="E25" s="22"/>
       <c r="F25" s="22"/>
       <c r="G25" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H25" s="20">
         <v>13000</v>
@@ -3466,12 +3284,8 @@
         <v>2600</v>
       </c>
       <c r="X25" s="25"/>
-      <c r="Y25" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z25" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="Y25" s="22"/>
+      <c r="Z25" s="22"/>
     </row>
     <row r="26" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:26">
       <c r="A26" s="22">
@@ -3479,18 +3293,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="21">
         <v>44440</v>
       </c>
-      <c r="E26" s="22" t="s">
-        <v>34</v>
-      </c>
+      <c r="E26" s="22"/>
       <c r="F26" s="22"/>
       <c r="G26" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H26" s="20">
         <v>7500</v>
@@ -3541,12 +3353,8 @@
         <v>1500</v>
       </c>
       <c r="X26" s="25"/>
-      <c r="Y26" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z26" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="Y26" s="22"/>
+      <c r="Z26" s="22"/>
     </row>
     <row r="27" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:26">
       <c r="A27" s="22">
@@ -3554,18 +3362,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C27" s="23"/>
       <c r="D27" s="21">
         <v>44292</v>
       </c>
-      <c r="E27" s="22" t="s">
-        <v>60</v>
-      </c>
+      <c r="E27" s="22"/>
       <c r="F27" s="22"/>
       <c r="G27" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H27" s="20">
         <v>8000</v>
@@ -3616,12 +3422,8 @@
         <v>1600</v>
       </c>
       <c r="X27" s="25"/>
-      <c r="Y27" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z27" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="Y27" s="22"/>
+      <c r="Z27" s="22"/>
     </row>
     <row r="28" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:26">
       <c r="A28" s="22">
@@ -3629,18 +3431,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C28" s="23"/>
       <c r="D28" s="21">
         <v>44257</v>
       </c>
-      <c r="E28" s="22" t="s">
-        <v>32</v>
-      </c>
+      <c r="E28" s="22"/>
       <c r="F28" s="22"/>
       <c r="G28" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H28" s="20">
         <v>16000</v>
@@ -3691,12 +3491,8 @@
         <v>3200</v>
       </c>
       <c r="X28" s="25"/>
-      <c r="Y28" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z28" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="Y28" s="22"/>
+      <c r="Z28" s="22"/>
     </row>
     <row r="29" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:26">
       <c r="A29" s="22">
@@ -3704,18 +3500,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C29" s="23"/>
       <c r="D29" s="21">
         <v>44494</v>
       </c>
-      <c r="E29" s="22" t="s">
-        <v>32</v>
-      </c>
+      <c r="E29" s="22"/>
       <c r="F29" s="22"/>
       <c r="G29" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H29" s="20">
         <v>4250</v>
@@ -3766,12 +3560,8 @@
         <v>1800</v>
       </c>
       <c r="X29" s="25"/>
-      <c r="Y29" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z29" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="Y29" s="22"/>
+      <c r="Z29" s="22"/>
     </row>
     <row r="30" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:26">
       <c r="A30" s="22">
@@ -3779,7 +3569,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C30" s="23"/>
       <c r="D30" s="21">
@@ -3788,7 +3578,7 @@
       <c r="E30" s="22"/>
       <c r="F30" s="22"/>
       <c r="G30" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H30" s="20">
         <v>18000</v>
@@ -3839,12 +3629,8 @@
         <v>3600</v>
       </c>
       <c r="X30" s="25"/>
-      <c r="Y30" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z30" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="Y30" s="22"/>
+      <c r="Z30" s="22"/>
     </row>
     <row r="31" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:26">
       <c r="A31" s="22">
@@ -3852,7 +3638,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C31" s="23"/>
       <c r="D31" s="21">
@@ -3861,7 +3647,7 @@
       <c r="E31" s="22"/>
       <c r="F31" s="22"/>
       <c r="G31" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H31" s="20">
         <v>10000</v>
@@ -3912,12 +3698,8 @@
         <v>2000</v>
       </c>
       <c r="X31" s="25"/>
-      <c r="Y31" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z31" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="Y31" s="22"/>
+      <c r="Z31" s="22"/>
     </row>
     <row r="32" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:26">
       <c r="A32" s="22">
@@ -3925,7 +3707,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C32" s="23"/>
       <c r="D32" s="21">
@@ -3934,7 +3716,7 @@
       <c r="E32" s="22"/>
       <c r="F32" s="22"/>
       <c r="G32" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H32" s="20">
         <v>4250</v>
@@ -3985,12 +3767,8 @@
         <v>1160</v>
       </c>
       <c r="X32" s="25"/>
-      <c r="Y32" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z32" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="Y32" s="22"/>
+      <c r="Z32" s="22"/>
     </row>
     <row r="33" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:26">
       <c r="A33" s="22">
@@ -3998,7 +3776,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C33" s="23"/>
       <c r="D33" s="21">
@@ -4007,7 +3785,7 @@
       <c r="E33" s="22"/>
       <c r="F33" s="22"/>
       <c r="G33" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H33" s="20">
         <v>4250</v>
@@ -4054,12 +3832,8 @@
         <v>0</v>
       </c>
       <c r="X33" s="25"/>
-      <c r="Y33" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z33" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="Y33" s="22"/>
+      <c r="Z33" s="22"/>
     </row>
     <row r="34" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:26">
       <c r="A34" s="22">
@@ -4067,7 +3841,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C34" s="23"/>
       <c r="D34" s="21">
@@ -4076,7 +3850,7 @@
       <c r="E34" s="22"/>
       <c r="F34" s="22"/>
       <c r="G34" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H34" s="20">
         <v>9000</v>
@@ -4127,12 +3901,8 @@
         <v>1800</v>
       </c>
       <c r="X34" s="25"/>
-      <c r="Y34" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z34" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="Y34" s="22"/>
+      <c r="Z34" s="22"/>
     </row>
     <row r="35" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:26">
       <c r="A35" s="22">
@@ -4140,7 +3910,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C35" s="23"/>
       <c r="D35" s="21">
@@ -4149,7 +3919,7 @@
       <c r="E35" s="22"/>
       <c r="F35" s="22"/>
       <c r="G35" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H35" s="20">
         <v>7500</v>
@@ -4200,12 +3970,8 @@
         <v>1500</v>
       </c>
       <c r="X35" s="25"/>
-      <c r="Y35" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z35" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="Y35" s="22"/>
+      <c r="Z35" s="22"/>
     </row>
     <row r="36" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:26">
       <c r="A36" s="22">
@@ -4213,7 +3979,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C36" s="23"/>
       <c r="D36" s="21">
@@ -4222,7 +3988,7 @@
       <c r="E36" s="22"/>
       <c r="F36" s="22"/>
       <c r="G36" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H36" s="20">
         <v>11000</v>
@@ -4273,12 +4039,8 @@
         <v>2200</v>
       </c>
       <c r="X36" s="25"/>
-      <c r="Y36" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z36" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="Y36" s="22"/>
+      <c r="Z36" s="22"/>
     </row>
     <row r="37" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:26">
       <c r="A37" s="22">
@@ -4286,7 +4048,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C37" s="23"/>
       <c r="D37" s="21">
@@ -4295,7 +4057,7 @@
       <c r="E37" s="22"/>
       <c r="F37" s="22"/>
       <c r="G37" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H37" s="20">
         <v>16000</v>
@@ -4346,12 +4108,8 @@
         <v>3200</v>
       </c>
       <c r="X37" s="25"/>
-      <c r="Y37" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z37" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="Y37" s="22"/>
+      <c r="Z37" s="22"/>
     </row>
     <row r="38" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:26">
       <c r="A38" s="22">
@@ -4359,7 +4117,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C38" s="23"/>
       <c r="D38" s="21">
@@ -4368,7 +4126,7 @@
       <c r="E38" s="22"/>
       <c r="F38" s="22"/>
       <c r="G38" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H38" s="20">
         <v>6000</v>
@@ -4419,12 +4177,8 @@
         <v>1200</v>
       </c>
       <c r="X38" s="25"/>
-      <c r="Y38" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z38" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="Y38" s="22"/>
+      <c r="Z38" s="22"/>
     </row>
     <row r="39" s="4" customFormat="1" ht="20.1" customHeight="1" spans="1:26">
       <c r="A39" s="22">
@@ -4432,7 +4186,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C39" s="23"/>
       <c r="D39" s="21">
@@ -4441,7 +4195,7 @@
       <c r="E39" s="22"/>
       <c r="F39" s="22"/>
       <c r="G39" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H39" s="20">
         <v>9000</v>
@@ -4492,12 +4246,8 @@
         <v>1800</v>
       </c>
       <c r="X39" s="25"/>
-      <c r="Y39" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z39" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="Y39" s="22"/>
+      <c r="Z39" s="22"/>
     </row>
     <row r="40" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:26">
       <c r="A40" s="22">
@@ -4505,7 +4255,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C40" s="23"/>
       <c r="D40" s="21">
@@ -4514,7 +4264,7 @@
       <c r="E40" s="22"/>
       <c r="F40" s="22"/>
       <c r="G40" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H40" s="20">
         <v>10000</v>
@@ -4565,12 +4315,8 @@
         <v>2000</v>
       </c>
       <c r="X40" s="25"/>
-      <c r="Y40" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z40" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="Y40" s="22"/>
+      <c r="Z40" s="22"/>
     </row>
     <row r="41" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:26">
       <c r="A41" s="22">
@@ -4578,7 +4324,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C41" s="23"/>
       <c r="D41" s="21">
@@ -4587,7 +4333,7 @@
       <c r="E41" s="22"/>
       <c r="F41" s="22"/>
       <c r="G41" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H41" s="20">
         <v>4250</v>
@@ -4638,12 +4384,8 @@
         <v>1600</v>
       </c>
       <c r="X41" s="25"/>
-      <c r="Y41" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z41" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="Y41" s="22"/>
+      <c r="Z41" s="22"/>
     </row>
     <row r="42" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:26">
       <c r="A42" s="22">
@@ -4651,7 +4393,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C42" s="23"/>
       <c r="D42" s="21">
@@ -4660,7 +4402,7 @@
       <c r="E42" s="22"/>
       <c r="F42" s="22"/>
       <c r="G42" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H42" s="20">
         <v>4250</v>
@@ -4711,12 +4453,8 @@
         <v>3000</v>
       </c>
       <c r="X42" s="25"/>
-      <c r="Y42" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z42" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="Y42" s="22"/>
+      <c r="Z42" s="22"/>
     </row>
     <row r="43" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:26">
       <c r="A43" s="22">
@@ -4724,7 +4462,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C43" s="23"/>
       <c r="D43" s="21">
@@ -4733,7 +4471,7 @@
       <c r="E43" s="22"/>
       <c r="F43" s="22"/>
       <c r="G43" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H43" s="20">
         <v>7000</v>
@@ -4784,12 +4522,8 @@
         <v>1400</v>
       </c>
       <c r="X43" s="25"/>
-      <c r="Y43" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z43" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="Y43" s="22"/>
+      <c r="Z43" s="22"/>
     </row>
     <row r="44" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:26">
       <c r="A44" s="25">
@@ -4797,7 +4531,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C44" s="23"/>
       <c r="D44" s="26">
@@ -4806,7 +4540,7 @@
       <c r="E44" s="25"/>
       <c r="F44" s="22"/>
       <c r="G44" s="24" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H44" s="27">
         <v>20599</v>
@@ -4857,14 +4591,10 @@
         <v>6000</v>
       </c>
       <c r="X44" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y44" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z44" s="22" t="s">
-        <v>29</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="Y44" s="22"/>
+      <c r="Z44" s="22"/>
     </row>
     <row r="45" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:26">
       <c r="A45" s="22">
@@ -4872,7 +4602,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C45" s="23"/>
       <c r="D45" s="21">
@@ -4881,7 +4611,7 @@
       <c r="E45" s="22"/>
       <c r="F45" s="22"/>
       <c r="G45" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H45" s="20">
         <v>4250</v>
@@ -4932,12 +4662,8 @@
         <v>1700</v>
       </c>
       <c r="X45" s="25"/>
-      <c r="Y45" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z45" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="Y45" s="22"/>
+      <c r="Z45" s="22"/>
     </row>
     <row r="46" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:26">
       <c r="A46" s="22">
@@ -4945,7 +4671,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C46" s="23"/>
       <c r="D46" s="21">
@@ -4954,7 +4680,7 @@
       <c r="E46" s="22"/>
       <c r="F46" s="22"/>
       <c r="G46" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H46" s="20">
         <v>15000</v>
@@ -5005,12 +4731,8 @@
         <v>3000</v>
       </c>
       <c r="X46" s="25"/>
-      <c r="Y46" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z46" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="Y46" s="22"/>
+      <c r="Z46" s="22"/>
     </row>
     <row r="47" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:26">
       <c r="A47" s="22">
@@ -5018,7 +4740,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C47" s="23"/>
       <c r="D47" s="21">
@@ -5027,7 +4749,7 @@
       <c r="E47" s="22"/>
       <c r="F47" s="22"/>
       <c r="G47" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H47" s="20">
         <v>4250</v>
@@ -5074,12 +4796,8 @@
         <v>0</v>
       </c>
       <c r="X47" s="25"/>
-      <c r="Y47" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z47" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="Y47" s="22"/>
+      <c r="Z47" s="22"/>
     </row>
     <row r="48" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:26">
       <c r="A48" s="22">
@@ -5087,7 +4805,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C48" s="23"/>
       <c r="D48" s="21">
@@ -5096,7 +4814,7 @@
       <c r="E48" s="22"/>
       <c r="F48" s="22"/>
       <c r="G48" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H48" s="20">
         <v>4250</v>
@@ -5143,12 +4861,8 @@
         <v>0</v>
       </c>
       <c r="X48" s="25"/>
-      <c r="Y48" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z48" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="Y48" s="22"/>
+      <c r="Z48" s="22"/>
     </row>
     <row r="49" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:26">
       <c r="A49" s="22">
@@ -5156,7 +4870,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C49" s="23"/>
       <c r="D49" s="21">
@@ -5165,7 +4879,7 @@
       <c r="E49" s="22"/>
       <c r="F49" s="22"/>
       <c r="G49" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H49" s="20">
         <v>4250</v>
@@ -5212,12 +4926,8 @@
         <v>0</v>
       </c>
       <c r="X49" s="25"/>
-      <c r="Y49" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z49" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="Y49" s="22"/>
+      <c r="Z49" s="22"/>
     </row>
     <row r="50" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:26">
       <c r="A50" s="22">
@@ -5225,7 +4935,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C50" s="23"/>
       <c r="D50" s="21">
@@ -5234,7 +4944,7 @@
       <c r="E50" s="22"/>
       <c r="F50" s="22"/>
       <c r="G50" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H50" s="20">
         <v>4250</v>
@@ -5281,12 +4991,8 @@
         <v>0</v>
       </c>
       <c r="X50" s="25"/>
-      <c r="Y50" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z50" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="Y50" s="22"/>
+      <c r="Z50" s="22"/>
     </row>
     <row r="51" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:26">
       <c r="A51" s="22">
@@ -5294,7 +5000,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C51" s="23"/>
       <c r="D51" s="21">
@@ -5303,7 +5009,7 @@
       <c r="E51" s="22"/>
       <c r="F51" s="22"/>
       <c r="G51" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H51" s="20">
         <v>4250</v>
@@ -5354,12 +5060,8 @@
         <v>1220</v>
       </c>
       <c r="X51" s="25"/>
-      <c r="Y51" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z51" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="Y51" s="22"/>
+      <c r="Z51" s="22"/>
     </row>
     <row r="52" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:26">
       <c r="A52" s="22">
@@ -5367,7 +5069,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C52" s="23"/>
       <c r="D52" s="21">
@@ -5376,7 +5078,7 @@
       <c r="E52" s="22"/>
       <c r="F52" s="22"/>
       <c r="G52" s="28" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H52" s="20"/>
       <c r="I52" s="20"/>
@@ -5403,12 +5105,8 @@
         <v>0</v>
       </c>
       <c r="X52" s="25"/>
-      <c r="Y52" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z52" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="Y52" s="22"/>
+      <c r="Z52" s="22"/>
     </row>
     <row r="53" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:26">
       <c r="A53" s="22">
@@ -5416,7 +5114,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C53" s="23"/>
       <c r="D53" s="21">
@@ -5425,7 +5123,7 @@
       <c r="E53" s="22"/>
       <c r="F53" s="22"/>
       <c r="G53" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H53" s="20">
         <v>4250</v>
@@ -5461,9 +5159,7 @@
         <f t="shared" si="6"/>
         <v>3097</v>
       </c>
-      <c r="S53" s="25" t="s">
-        <v>89</v>
-      </c>
+      <c r="S53" s="25"/>
       <c r="T53" s="20">
         <v>0</v>
       </c>
@@ -5474,12 +5170,8 @@
         <v>0</v>
       </c>
       <c r="X53" s="25"/>
-      <c r="Y53" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z53" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="Y53" s="22"/>
+      <c r="Z53" s="22"/>
     </row>
     <row r="54" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:26">
       <c r="A54" s="22">
@@ -5487,7 +5179,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C54" s="23"/>
       <c r="D54" s="21">
@@ -5496,7 +5188,7 @@
       <c r="E54" s="22"/>
       <c r="F54" s="22"/>
       <c r="G54" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H54" s="20">
         <v>4250</v>
@@ -5532,9 +5224,7 @@
         <f t="shared" si="6"/>
         <v>3097</v>
       </c>
-      <c r="S54" s="25" t="s">
-        <v>89</v>
-      </c>
+      <c r="S54" s="25"/>
       <c r="T54" s="20"/>
       <c r="U54" s="22">
         <v>950</v>
@@ -5547,12 +5237,8 @@
         <v>1900</v>
       </c>
       <c r="X54" s="25"/>
-      <c r="Y54" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z54" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="Y54" s="22"/>
+      <c r="Z54" s="22"/>
     </row>
     <row r="55" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:26">
       <c r="A55" s="22">
@@ -5560,7 +5246,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C55" s="23"/>
       <c r="D55" s="21">
@@ -5569,7 +5255,7 @@
       <c r="E55" s="22"/>
       <c r="F55" s="22"/>
       <c r="G55" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H55" s="20">
         <v>4250</v>
@@ -5605,9 +5291,7 @@
         <f t="shared" si="6"/>
         <v>3097</v>
       </c>
-      <c r="S55" s="25" t="s">
-        <v>89</v>
-      </c>
+      <c r="S55" s="25"/>
       <c r="T55" s="20">
         <v>0</v>
       </c>
@@ -5618,12 +5302,8 @@
         <v>0</v>
       </c>
       <c r="X55" s="25"/>
-      <c r="Y55" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z55" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="Y55" s="22"/>
+      <c r="Z55" s="22"/>
     </row>
     <row r="56" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:26">
       <c r="A56" s="22">
@@ -5631,7 +5311,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C56" s="23"/>
       <c r="D56" s="21">
@@ -5640,7 +5320,7 @@
       <c r="E56" s="22"/>
       <c r="F56" s="22"/>
       <c r="G56" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H56" s="20">
         <v>20586</v>
@@ -5691,12 +5371,8 @@
         <v>4200</v>
       </c>
       <c r="X56" s="25"/>
-      <c r="Y56" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z56" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="Y56" s="22"/>
+      <c r="Z56" s="22"/>
     </row>
     <row r="57" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:26">
       <c r="A57" s="22">
@@ -5704,7 +5380,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C57" s="23"/>
       <c r="D57" s="21">
@@ -5713,7 +5389,7 @@
       <c r="E57" s="22"/>
       <c r="F57" s="22"/>
       <c r="G57" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H57" s="20"/>
       <c r="I57" s="20"/>
@@ -5729,9 +5405,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S57" s="25" t="s">
-        <v>94</v>
-      </c>
+      <c r="S57" s="25"/>
       <c r="T57" s="20"/>
       <c r="U57" s="22"/>
       <c r="V57" s="22"/>
@@ -5740,12 +5414,8 @@
         <v>0</v>
       </c>
       <c r="X57" s="25"/>
-      <c r="Y57" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z57" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="Y57" s="22"/>
+      <c r="Z57" s="22"/>
     </row>
     <row r="58" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:26">
       <c r="A58" s="22">
@@ -5753,7 +5423,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C58" s="23"/>
       <c r="D58" s="21">
@@ -5762,7 +5432,7 @@
       <c r="E58" s="22"/>
       <c r="F58" s="22"/>
       <c r="G58" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H58" s="20"/>
       <c r="I58" s="20"/>
@@ -5778,9 +5448,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S58" s="25" t="s">
-        <v>94</v>
-      </c>
+      <c r="S58" s="25"/>
       <c r="T58" s="20"/>
       <c r="U58" s="22">
         <v>600</v>
@@ -5793,12 +5461,8 @@
         <v>1200</v>
       </c>
       <c r="X58" s="25"/>
-      <c r="Y58" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z58" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="Y58" s="22"/>
+      <c r="Z58" s="22"/>
     </row>
     <row r="59" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:26">
       <c r="A59" s="22">
@@ -5806,7 +5470,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C59" s="23"/>
       <c r="D59" s="21">
@@ -5815,7 +5479,7 @@
       <c r="E59" s="22"/>
       <c r="F59" s="22"/>
       <c r="G59" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H59" s="20"/>
       <c r="I59" s="20"/>
@@ -5831,9 +5495,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S59" s="25" t="s">
-        <v>94</v>
-      </c>
+      <c r="S59" s="25"/>
       <c r="T59" s="20"/>
       <c r="U59" s="22">
         <v>750</v>
@@ -5846,12 +5508,8 @@
         <v>1500</v>
       </c>
       <c r="X59" s="25"/>
-      <c r="Y59" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z59" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="Y59" s="22"/>
+      <c r="Z59" s="22"/>
     </row>
     <row r="60" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:26">
       <c r="A60" s="22">
@@ -5859,7 +5517,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="29" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C60" s="23"/>
       <c r="D60" s="21">
@@ -5868,7 +5526,7 @@
       <c r="E60" s="22"/>
       <c r="F60" s="22"/>
       <c r="G60" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H60" s="20">
         <v>4250</v>
@@ -5904,9 +5562,7 @@
         <f t="shared" si="6"/>
         <v>3097</v>
       </c>
-      <c r="S60" s="25" t="s">
-        <v>89</v>
-      </c>
+      <c r="S60" s="25"/>
       <c r="T60" s="20"/>
       <c r="U60" s="22"/>
       <c r="V60" s="22"/>
@@ -5915,12 +5571,8 @@
         <v>0</v>
       </c>
       <c r="X60" s="25"/>
-      <c r="Y60" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z60" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="Y60" s="22"/>
+      <c r="Z60" s="22"/>
     </row>
     <row r="61" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:26">
       <c r="A61" s="22">
@@ -5928,7 +5580,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C61" s="23"/>
       <c r="D61" s="21">
@@ -5937,7 +5589,7 @@
       <c r="E61" s="22"/>
       <c r="F61" s="22"/>
       <c r="G61" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H61" s="20"/>
       <c r="I61" s="20"/>
@@ -5953,9 +5605,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S61" s="25" t="s">
-        <v>94</v>
-      </c>
+      <c r="S61" s="25"/>
       <c r="T61" s="20"/>
       <c r="U61" s="22"/>
       <c r="V61" s="22"/>
@@ -5964,12 +5614,8 @@
         <v>0</v>
       </c>
       <c r="X61" s="25"/>
-      <c r="Y61" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z61" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="Y61" s="22"/>
+      <c r="Z61" s="22"/>
     </row>
     <row r="62" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:26">
       <c r="A62" s="22">
@@ -5977,7 +5623,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C62" s="23"/>
       <c r="D62" s="21">
@@ -5986,7 +5632,7 @@
       <c r="E62" s="22"/>
       <c r="F62" s="22"/>
       <c r="G62" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H62" s="20"/>
       <c r="I62" s="20"/>
@@ -6002,9 +5648,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S62" s="25" t="s">
-        <v>100</v>
-      </c>
+      <c r="S62" s="25"/>
       <c r="T62" s="20"/>
       <c r="U62" s="22"/>
       <c r="V62" s="22"/>
@@ -6013,12 +5657,8 @@
         <v>0</v>
       </c>
       <c r="X62" s="25"/>
-      <c r="Y62" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z62" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="Y62" s="22"/>
+      <c r="Z62" s="22"/>
     </row>
     <row r="63" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:26">
       <c r="A63" s="22">
@@ -6026,7 +5666,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C63" s="23"/>
       <c r="D63" s="21">
@@ -6035,7 +5675,7 @@
       <c r="E63" s="22"/>
       <c r="F63" s="22"/>
       <c r="G63" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H63" s="20"/>
       <c r="I63" s="20"/>
@@ -6051,9 +5691,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S63" s="25" t="s">
-        <v>100</v>
-      </c>
+      <c r="S63" s="25"/>
       <c r="T63" s="20"/>
       <c r="U63" s="22"/>
       <c r="V63" s="22"/>
@@ -6062,12 +5700,8 @@
         <v>0</v>
       </c>
       <c r="X63" s="25"/>
-      <c r="Y63" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z63" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="Y63" s="22"/>
+      <c r="Z63" s="22"/>
     </row>
     <row r="64" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:26">
       <c r="A64" s="22">
@@ -6075,7 +5709,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C64" s="23"/>
       <c r="D64" s="21">
@@ -6084,7 +5718,7 @@
       <c r="E64" s="22"/>
       <c r="F64" s="22"/>
       <c r="G64" s="29" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H64" s="20"/>
       <c r="I64" s="20"/>
@@ -6109,12 +5743,8 @@
         <v>0</v>
       </c>
       <c r="X64" s="25"/>
-      <c r="Y64" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z64" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="Y64" s="22"/>
+      <c r="Z64" s="22"/>
     </row>
     <row r="65" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:26">
       <c r="A65" s="22">
@@ -6122,7 +5752,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C65" s="23"/>
       <c r="D65" s="21">
@@ -6163,7 +5793,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C66" s="23"/>
       <c r="D66" s="21">
@@ -6204,7 +5834,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C67" s="23"/>
       <c r="D67" s="21">
@@ -6245,7 +5875,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C68" s="23"/>
       <c r="D68" s="21">
@@ -6286,7 +5916,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C69" s="23"/>
       <c r="D69" s="21">
@@ -6327,7 +5957,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C70" s="23"/>
       <c r="D70" s="21">
@@ -6368,7 +5998,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C71" s="23"/>
       <c r="D71" s="21">
@@ -6409,7 +6039,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C72" s="23"/>
       <c r="D72" s="21">
@@ -6450,7 +6080,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="23" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C73" s="23"/>
       <c r="D73" s="21">
@@ -6491,7 +6121,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C74" s="23"/>
       <c r="D74" s="21">
@@ -6532,7 +6162,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="23" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C75" s="23"/>
       <c r="D75" s="21">
@@ -6579,7 +6209,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C76" s="23"/>
       <c r="D76" s="21">
@@ -6626,7 +6256,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="23" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C77" s="23"/>
       <c r="D77" s="21">
@@ -6667,7 +6297,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="23" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C78" s="23"/>
       <c r="D78" s="21">
@@ -6708,7 +6338,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="23" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C79" s="23"/>
       <c r="D79" s="21">
@@ -6749,7 +6379,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="23" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C80" s="23"/>
       <c r="D80" s="21">
@@ -6790,7 +6420,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C81" s="23"/>
       <c r="D81" s="21">
@@ -6831,7 +6461,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C82" s="23"/>
       <c r="D82" s="21">
@@ -6872,7 +6502,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="23" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C83" s="23"/>
       <c r="D83" s="21">
@@ -6913,7 +6543,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="23" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C84" s="23"/>
       <c r="D84" s="21">
@@ -6954,7 +6584,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="23" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C85" s="23"/>
       <c r="D85" s="21">
@@ -6995,7 +6625,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="23" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C86" s="23"/>
       <c r="D86" s="21">
